--- a/indicators/NO_GLAC_001/metadata.xlsx
+++ b/indicators/NO_GLAC_001/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv_GLAC\indicators\NO_GLAC_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57370DF1-64A0-47CB-B3DA-3B05EB19E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB69A0-00E5-45D4-832B-8CB8E90E1B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23835" windowHeight="11385" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -708,10 +708,10 @@
     <t>https://github.com/NINAnor/ecRxiv/tree/main/indicators/NO_GLAC_001</t>
   </si>
   <si>
-    <t>This is mainly a reformatting of the same indicator described here: https://ninanor.github.io/IBECA/faktaark.html#Areal_av_isbreer. However, the aggregation pathway is different, and now we weight each regional estimate by the glacial area, not the alpine area.</t>
-  </si>
-  <si>
-    <t>Aggregate (sum; bioclimatic region) - [Scale - Truncate] - Aggregate (area weighted mean)</t>
+    <t>Aggregate (sum; bioclimatic region) - [Scale - Transform - Truncate] - Aggregate (weighted resampling) - Aggregate (weighted resampling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very similar indicator was developed earlierand is described here: https://ninanor.github.io/IBECA/faktaark.html#Areal_av_isbreer. However, the EA definition, the aggregation pathway, and the aggregation method is different. The current version weight each regional estimate by the glacial area, not the alpine area.. EAs are defined on the basis of geographical regions and bioclimatig region (the latter part is new). The aggregation function is a weighted resampling of indicator distributions. </t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1357,7 @@
         <v>168</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>169</v>
@@ -1411,7 +1411,7 @@
         <v>195</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>197</v>

--- a/indicators/NO_GLAC_001/metadata.xlsx
+++ b/indicators/NO_GLAC_001/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv_GLAC\indicators\NO_GLAC_001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\github\ecRxiv_GLAC\indicators\NO_GLAC_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB69A0-00E5-45D4-832B-8CB8E90E1B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA52BE-64A0-4B78-A9C7-21B66CDCDD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23835" windowHeight="11385" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -696,9 +696,6 @@
     <t>NO_GLAC_001</t>
   </si>
   <si>
-    <t>Area of glaciers</t>
-  </si>
-  <si>
     <t>000.002</t>
   </si>
   <si>
@@ -712,6 +709,9 @@
   </si>
   <si>
     <t xml:space="preserve">A very similar indicator was developed earlierand is described here: https://ninanor.github.io/IBECA/faktaark.html#Areal_av_isbreer. However, the EA definition, the aggregation pathway, and the aggregation method is different. The current version weight each regional estimate by the glacial area, not the alpine area.. EAs are defined on the basis of geographical regions and bioclimatig region (the latter part is new). The aggregation function is a weighted resampling of indicator distributions. </t>
+  </si>
+  <si>
+    <t>Glacier area</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>200</v>
@@ -1343,7 +1343,7 @@
         <v>167</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>179</v>
@@ -1357,7 +1357,7 @@
         <v>168</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>169</v>
@@ -1369,7 +1369,7 @@
         <v>186</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>183</v>
@@ -1383,7 +1383,7 @@
         <v>184</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>188</v>
@@ -1411,7 +1411,7 @@
         <v>195</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>197</v>
